--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem3/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem3/123/word_level_predictions_123.xlsx
@@ -866,312 +866,312 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" t="inlineStr">
+      <c r="A9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="2" t="inlineStr">
         <is>
           <t>Check</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="inlineStr">
+      <c r="D9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9" t="inlineStr">
+      <c r="G9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" t="inlineStr">
+      <c r="A10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="2" t="inlineStr">
         <is>
           <t>whether</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L10" t="inlineStr">
+      <c r="D10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" t="inlineStr">
+      <c r="A11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="2" t="inlineStr">
         <is>
           <t>propellers</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K11" t="b">
-        <v>1</v>
-      </c>
-      <c r="L11" t="inlineStr">
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" t="inlineStr">
+      <c r="A12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="2" t="inlineStr">
         <is>
           <t>are</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I12" t="b">
-        <v>1</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K12" t="b">
-        <v>1</v>
-      </c>
-      <c r="L12" t="inlineStr">
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" t="inlineStr">
+      <c r="A13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" s="2" t="inlineStr">
         <is>
           <t>installed</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K13" t="b">
-        <v>1</v>
-      </c>
-      <c r="L13" t="inlineStr">
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" t="inlineStr">
+      <c r="A14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" s="2" t="inlineStr">
         <is>
           <t>correctly</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E14" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
-      <c r="L14" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G15" t="b">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1825,7 +1825,7 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G27" s="2" t="b">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_B</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -2062,260 +2062,260 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>1</v>
-      </c>
-      <c r="B32" t="inlineStr">
+      <c r="A32" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C32" s="2" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D32" t="n">
+      <c r="D32" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E32" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G32" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I32" t="b">
-        <v>1</v>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K32" t="b">
-        <v>1</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
-        <v>1</v>
-      </c>
-      <c r="B33" t="inlineStr">
+      <c r="A33" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C33" s="2" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D33" t="n">
+      <c r="D33" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G33" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I33" t="b">
-        <v>1</v>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K33" t="b">
-        <v>1</v>
-      </c>
-      <c r="L33" t="inlineStr">
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>1</v>
-      </c>
-      <c r="B34" t="inlineStr">
+      <c r="A34" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C34" s="2" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="D34" t="n">
+      <c r="D34" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I34" t="b">
-        <v>1</v>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K34" t="b">
-        <v>1</v>
-      </c>
-      <c r="L34" t="inlineStr">
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>1</v>
-      </c>
-      <c r="B35" t="inlineStr">
+      <c r="A35" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C35" s="2" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D35" t="n">
+      <c r="D35" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G35" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I35" t="b">
-        <v>1</v>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K35" t="b">
-        <v>1</v>
-      </c>
-      <c r="L35" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>1</v>
-      </c>
-      <c r="B36" t="inlineStr">
+      <c r="A36" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C36" s="2" t="inlineStr">
         <is>
           <t>assistance</t>
         </is>
       </c>
-      <c r="D36" t="n">
+      <c r="D36" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="E36" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="F36" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I36" t="b">
-        <v>1</v>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K36" t="b">
-        <v>1</v>
-      </c>
-      <c r="L36" t="inlineStr">
+      <c r="G36" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -2374,312 +2374,312 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
+      <c r="A38" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" s="2" t="inlineStr">
         <is>
           <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C38" s="2" t="inlineStr">
         <is>
           <t>Capture</t>
         </is>
       </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="inlineStr">
+      <c r="D38" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="F38" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G38" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I38" t="b">
-        <v>1</v>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K38" t="b">
-        <v>1</v>
-      </c>
-      <c r="L38" t="inlineStr">
+      <c r="G38" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
+      <c r="A39" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" s="2" t="inlineStr">
         <is>
           <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C39" s="2" t="inlineStr">
         <is>
           <t>Failed</t>
         </is>
       </c>
-      <c r="D39" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" t="inlineStr">
+      <c r="D39" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="F39" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G39" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I39" t="b">
-        <v>1</v>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K39" t="b">
-        <v>1</v>
-      </c>
-      <c r="L39" t="inlineStr">
+      <c r="G39" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
+      <c r="A40" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" s="2" t="inlineStr">
         <is>
           <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C40" s="2" t="inlineStr">
         <is>
           <t>The</t>
         </is>
       </c>
-      <c r="D40" t="n">
+      <c r="D40" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="E40" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="F40" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I40" t="b">
-        <v>1</v>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K40" t="b">
-        <v>1</v>
-      </c>
-      <c r="L40" t="inlineStr">
+      <c r="G40" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
+      <c r="A41" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" s="2" t="inlineStr">
         <is>
           <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C41" s="2" t="inlineStr">
         <is>
           <t>aircraft</t>
         </is>
       </c>
-      <c r="D41" t="n">
+      <c r="D41" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="E41" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="F41" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G41" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I41" t="b">
-        <v>1</v>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K41" t="b">
-        <v>1</v>
-      </c>
-      <c r="L41" t="inlineStr">
+      <c r="G41" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
+      <c r="A42" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" s="2" t="inlineStr">
         <is>
           <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C42" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D42" t="n">
+      <c r="D42" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="E42" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="F42" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G42" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I42" t="b">
-        <v>1</v>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K42" t="b">
-        <v>1</v>
-      </c>
-      <c r="L42" t="inlineStr">
+      <c r="G42" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
+      <c r="A43" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" s="2" t="inlineStr">
         <is>
           <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C43" s="2" t="inlineStr">
         <is>
           <t>moving</t>
         </is>
       </c>
-      <c r="D43" t="n">
+      <c r="D43" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="E43" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="F43" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I43" t="b">
-        <v>1</v>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K43" t="b">
-        <v>1</v>
-      </c>
-      <c r="L43" t="inlineStr">
+      <c r="G43" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G44" t="b">
@@ -2733,7 +2733,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -2894,260 +2894,260 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
+      <c r="A48" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" s="2" t="inlineStr">
         <is>
           <t>Capture Failed Stick movement detected Panorama has stopped .</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C48" s="2" t="inlineStr">
         <is>
           <t>Capture</t>
         </is>
       </c>
-      <c r="D48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" t="inlineStr">
+      <c r="D48" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="F48" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G48" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I48" t="b">
-        <v>1</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K48" t="b">
-        <v>1</v>
-      </c>
-      <c r="L48" t="inlineStr">
+      <c r="G48" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
+      <c r="A49" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" s="2" t="inlineStr">
         <is>
           <t>Capture Failed Stick movement detected Panorama has stopped .</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C49" s="2" t="inlineStr">
         <is>
           <t>Failed</t>
         </is>
       </c>
-      <c r="D49" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" t="inlineStr">
+      <c r="D49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="F49" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G49" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I49" t="b">
-        <v>1</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K49" t="b">
-        <v>1</v>
-      </c>
-      <c r="L49" t="inlineStr">
+      <c r="G49" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
+      <c r="A50" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" s="2" t="inlineStr">
         <is>
           <t>Capture Failed Stick movement detected Panorama has stopped .</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C50" s="2" t="inlineStr">
         <is>
           <t>Stick</t>
         </is>
       </c>
-      <c r="D50" t="n">
+      <c r="D50" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="E50" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="F50" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I50" t="b">
-        <v>1</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K50" t="b">
-        <v>1</v>
-      </c>
-      <c r="L50" t="inlineStr">
+      <c r="G50" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
+      <c r="A51" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" s="2" t="inlineStr">
         <is>
           <t>Capture Failed Stick movement detected Panorama has stopped .</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C51" s="2" t="inlineStr">
         <is>
           <t>movement</t>
         </is>
       </c>
-      <c r="D51" t="n">
+      <c r="D51" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="E51" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="F51" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G51" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I51" t="b">
-        <v>1</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K51" t="b">
-        <v>1</v>
-      </c>
-      <c r="L51" t="inlineStr">
+      <c r="G51" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
+      <c r="A52" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" s="2" t="inlineStr">
         <is>
           <t>Capture Failed Stick movement detected Panorama has stopped .</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C52" s="2" t="inlineStr">
         <is>
           <t>detected</t>
         </is>
       </c>
-      <c r="D52" t="n">
+      <c r="D52" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="E52" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="F52" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G52" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I52" t="b">
-        <v>1</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K52" t="b">
-        <v>1</v>
-      </c>
-      <c r="L52" t="inlineStr">
+      <c r="G52" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -3177,7 +3177,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G53" t="b">
@@ -3201,7 +3201,7 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem3/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem3/123/word_level_predictions_123.xlsx
@@ -866,312 +866,312 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Check</t>
         </is>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" t="n">
         <v>0</v>
       </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>whether</t>
         </is>
       </c>
-      <c r="D10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>propellers</t>
         </is>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" t="n">
         <v>2</v>
       </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>are</t>
         </is>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" t="n">
         <v>3</v>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>installed</t>
         </is>
       </c>
-      <c r="D13" s="2" t="n">
+      <c r="D13" t="n">
         <v>4</v>
       </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>correctly</t>
         </is>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" t="n">
         <v>5</v>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G15" t="b">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -1825,7 +1825,7 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G27" s="2" t="b">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
@@ -2062,260 +2062,260 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B32" s="2" t="inlineStr">
+      <c r="A32" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C32" s="2" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D32" s="2" t="n">
+      <c r="D32" t="n">
         <v>23</v>
       </c>
-      <c r="E32" s="2" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F32" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G32" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I32" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K32" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L32" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I32" t="b">
+        <v>1</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K32" t="b">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B33" s="2" t="inlineStr">
+      <c r="A33" t="n">
+        <v>1</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C33" s="2" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D33" s="2" t="n">
+      <c r="D33" t="n">
         <v>24</v>
       </c>
-      <c r="E33" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F33" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G33" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I33" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K33" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L33" s="2" t="inlineStr">
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I33" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K33" t="b">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B34" s="2" t="inlineStr">
+      <c r="A34" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C34" s="2" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="D34" s="2" t="n">
+      <c r="D34" t="n">
         <v>25</v>
       </c>
-      <c r="E34" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F34" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G34" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I34" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K34" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L34" s="2" t="inlineStr">
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I34" t="b">
+        <v>1</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K34" t="b">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B35" s="2" t="inlineStr">
+      <c r="A35" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C35" s="2" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D35" s="2" t="n">
+      <c r="D35" t="n">
         <v>26</v>
       </c>
-      <c r="E35" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F35" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G35" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I35" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K35" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L35" s="2" t="inlineStr">
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I35" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K35" t="b">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B36" s="2" t="inlineStr">
+      <c r="A36" t="n">
+        <v>1</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C36" s="2" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>assistance</t>
         </is>
       </c>
-      <c r="D36" s="2" t="n">
+      <c r="D36" t="n">
         <v>27</v>
       </c>
-      <c r="E36" s="2" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F36" s="2" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G36" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I36" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K36" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L36" s="2" t="inlineStr">
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I36" t="b">
+        <v>1</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K36" t="b">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -2374,312 +2374,312 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n">
+      <c r="A38" t="n">
         <v>2</v>
       </c>
-      <c r="B38" s="2" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
         </is>
       </c>
-      <c r="C38" s="2" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>Capture</t>
         </is>
       </c>
-      <c r="D38" s="2" t="n">
+      <c r="D38" t="n">
         <v>0</v>
       </c>
-      <c r="E38" s="2" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F38" s="2" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G38" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I38" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K38" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L38" s="2" t="inlineStr">
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I38" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K38" t="b">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n">
+      <c r="A39" t="n">
         <v>2</v>
       </c>
-      <c r="B39" s="2" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
         </is>
       </c>
-      <c r="C39" s="2" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>Failed</t>
         </is>
       </c>
-      <c r="D39" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" s="2" t="inlineStr">
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F39" s="2" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G39" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I39" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K39" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L39" s="2" t="inlineStr">
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I39" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K39" t="b">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="n">
+      <c r="A40" t="n">
         <v>2</v>
       </c>
-      <c r="B40" s="2" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
         </is>
       </c>
-      <c r="C40" s="2" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>The</t>
         </is>
       </c>
-      <c r="D40" s="2" t="n">
+      <c r="D40" t="n">
         <v>2</v>
       </c>
-      <c r="E40" s="2" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F40" s="2" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G40" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I40" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K40" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L40" s="2" t="inlineStr">
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I40" t="b">
+        <v>1</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K40" t="b">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n">
+      <c r="A41" t="n">
         <v>2</v>
       </c>
-      <c r="B41" s="2" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
         </is>
       </c>
-      <c r="C41" s="2" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>aircraft</t>
         </is>
       </c>
-      <c r="D41" s="2" t="n">
+      <c r="D41" t="n">
         <v>3</v>
       </c>
-      <c r="E41" s="2" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F41" s="2" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G41" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I41" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K41" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L41" s="2" t="inlineStr">
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I41" t="b">
+        <v>1</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K41" t="b">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n">
+      <c r="A42" t="n">
         <v>2</v>
       </c>
-      <c r="B42" s="2" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
         </is>
       </c>
-      <c r="C42" s="2" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D42" s="2" t="n">
+      <c r="D42" t="n">
         <v>4</v>
       </c>
-      <c r="E42" s="2" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F42" s="2" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G42" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I42" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K42" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L42" s="2" t="inlineStr">
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I42" t="b">
+        <v>1</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K42" t="b">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n">
+      <c r="A43" t="n">
         <v>2</v>
       </c>
-      <c r="B43" s="2" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
         </is>
       </c>
-      <c r="C43" s="2" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>moving</t>
         </is>
       </c>
-      <c r="D43" s="2" t="n">
+      <c r="D43" t="n">
         <v>5</v>
       </c>
-      <c r="E43" s="2" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F43" s="2" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G43" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I43" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K43" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L43" s="2" t="inlineStr">
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I43" t="b">
+        <v>1</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K43" t="b">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G44" t="b">
@@ -2733,7 +2733,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -2894,260 +2894,260 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n">
+      <c r="A48" t="n">
         <v>3</v>
       </c>
-      <c r="B48" s="2" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>Capture Failed Stick movement detected Panorama has stopped .</t>
         </is>
       </c>
-      <c r="C48" s="2" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>Capture</t>
         </is>
       </c>
-      <c r="D48" s="2" t="n">
+      <c r="D48" t="n">
         <v>0</v>
       </c>
-      <c r="E48" s="2" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F48" s="2" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G48" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I48" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K48" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L48" s="2" t="inlineStr">
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I48" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K48" t="b">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
+      <c r="A49" t="n">
         <v>3</v>
       </c>
-      <c r="B49" s="2" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>Capture Failed Stick movement detected Panorama has stopped .</t>
         </is>
       </c>
-      <c r="C49" s="2" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>Failed</t>
         </is>
       </c>
-      <c r="D49" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" s="2" t="inlineStr">
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F49" s="2" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G49" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I49" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K49" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L49" s="2" t="inlineStr">
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I49" t="b">
+        <v>1</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K49" t="b">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
+      <c r="A50" t="n">
         <v>3</v>
       </c>
-      <c r="B50" s="2" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>Capture Failed Stick movement detected Panorama has stopped .</t>
         </is>
       </c>
-      <c r="C50" s="2" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>Stick</t>
         </is>
       </c>
-      <c r="D50" s="2" t="n">
+      <c r="D50" t="n">
         <v>2</v>
       </c>
-      <c r="E50" s="2" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F50" s="2" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G50" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L50" s="2" t="inlineStr">
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I50" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K50" t="b">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
+      <c r="A51" t="n">
         <v>3</v>
       </c>
-      <c r="B51" s="2" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>Capture Failed Stick movement detected Panorama has stopped .</t>
         </is>
       </c>
-      <c r="C51" s="2" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>movement</t>
         </is>
       </c>
-      <c r="D51" s="2" t="n">
+      <c r="D51" t="n">
         <v>3</v>
       </c>
-      <c r="E51" s="2" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F51" s="2" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G51" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I51" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K51" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L51" s="2" t="inlineStr">
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I51" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K51" t="b">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n">
+      <c r="A52" t="n">
         <v>3</v>
       </c>
-      <c r="B52" s="2" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>Capture Failed Stick movement detected Panorama has stopped .</t>
         </is>
       </c>
-      <c r="C52" s="2" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>detected</t>
         </is>
       </c>
-      <c r="D52" s="2" t="n">
+      <c r="D52" t="n">
         <v>4</v>
       </c>
-      <c r="E52" s="2" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F52" s="2" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G52" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I52" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K52" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L52" s="2" t="inlineStr">
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I52" t="b">
+        <v>1</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K52" t="b">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -3177,7 +3177,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G53" t="b">
@@ -3201,7 +3201,7 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
